--- a/Code/Results/Cases/Case_2_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.355505593960828</v>
+        <v>0.7653289220038175</v>
       </c>
       <c r="C2">
-        <v>0.2084429796634453</v>
+        <v>0.08546719841855577</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.263469074292928</v>
+        <v>0.1050008489324767</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008287223881612069</v>
+        <v>0.002532472839602385</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.469352257763632</v>
+        <v>0.7731657418972304</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.704618858762764</v>
+        <v>0.3279794908352685</v>
       </c>
       <c r="N2">
-        <v>2.115858098869154</v>
+        <v>2.94647403027362</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.180667155878524</v>
+        <v>0.7217081492896114</v>
       </c>
       <c r="C3">
-        <v>0.1798553003784491</v>
+        <v>0.07803260139199608</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2271340286461907</v>
+        <v>0.09559867191626381</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008360595734005781</v>
+        <v>0.002536818694311251</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.276845830429664</v>
+        <v>0.7246526489608129</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6100033895216583</v>
+        <v>0.3038456647080139</v>
       </c>
       <c r="N3">
-        <v>2.099968801981532</v>
+        <v>2.941634418362682</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.075271736003117</v>
+        <v>0.6953911062140605</v>
       </c>
       <c r="C4">
-        <v>0.1626378960512795</v>
+        <v>0.07351569335392583</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2052587678207587</v>
+        <v>0.08988646178255522</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008406815337967193</v>
+        <v>0.002539625112992166</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.160818788690932</v>
+        <v>0.6953356325517177</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.553003340214147</v>
+        <v>0.2892253933940054</v>
       </c>
       <c r="N4">
-        <v>2.092483090257474</v>
+        <v>2.939299642765391</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.032754999824647</v>
+        <v>0.684783405697317</v>
       </c>
       <c r="C5">
-        <v>0.1556946109913326</v>
+        <v>0.07168691100244473</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1964388939978789</v>
+        <v>0.08757370612940463</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008425957390666526</v>
+        <v>0.002540803581965884</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.114015605212643</v>
+        <v>0.6835062363315387</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5300149800924743</v>
+        <v>0.2833168029099156</v>
       </c>
       <c r="N5">
-        <v>2.089966248262357</v>
+        <v>2.938507715090125</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02571962411605</v>
+        <v>0.6830290383502984</v>
       </c>
       <c r="C6">
-        <v>0.1545457732127176</v>
+        <v>0.07138395664364339</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1949796563610775</v>
+        <v>0.0871905741140182</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000842915483565682</v>
+        <v>0.002541001373103776</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.106271014815064</v>
+        <v>0.6815490517685703</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5262112680304227</v>
+        <v>0.282338648428194</v>
       </c>
       <c r="N6">
-        <v>2.089579526040566</v>
+        <v>2.938385832569807</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.074696663023332</v>
+        <v>0.6952475752218845</v>
       </c>
       <c r="C7">
-        <v>0.1625439755459013</v>
+        <v>0.0734909818142313</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.205139456102593</v>
+        <v>0.0898552106949424</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008407072234374547</v>
+        <v>0.002539640865019125</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.160185731464139</v>
+        <v>0.695175622256869</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.552692385823029</v>
+        <v>0.2891455091614219</v>
       </c>
       <c r="N7">
-        <v>2.092447033619337</v>
+        <v>2.939288317522312</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.294778202232948</v>
+        <v>0.7501913565392044</v>
       </c>
       <c r="C8">
-        <v>0.1985091166206132</v>
+        <v>0.0828936911277367</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.250841234404291</v>
+        <v>0.1017462046275952</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008312288156084427</v>
+        <v>0.002533942709915812</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.402482673063304</v>
+        <v>0.7563403841468528</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6717460113610869</v>
+        <v>0.3196167441257458</v>
       </c>
       <c r="N8">
-        <v>2.109884866435479</v>
+        <v>2.944672800224438</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.744824437373978</v>
+        <v>0.8616670036179528</v>
       </c>
       <c r="C9">
-        <v>0.2722711396412762</v>
+        <v>0.1017215054407643</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3446516386677132</v>
+        <v>0.1255596873525562</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008135037384638182</v>
+        <v>0.002523858591656776</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.898235572940109</v>
+        <v>0.8800548143286733</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9156665743225503</v>
+        <v>0.3809676991209017</v>
       </c>
       <c r="N9">
-        <v>2.16394661786083</v>
+        <v>2.960313632400698</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.091311939484115</v>
+        <v>0.9458957639512278</v>
       </c>
       <c r="C10">
-        <v>0.3293304980410312</v>
+        <v>0.115804853564299</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4172863081829092</v>
+        <v>0.1433773996949554</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008009055699746443</v>
+        <v>0.002517106682979143</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.280275150658355</v>
+        <v>0.9733117291462463</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.104017104024997</v>
+        <v>0.4270567024700682</v>
       </c>
       <c r="N10">
-        <v>2.21865236955702</v>
+        <v>2.974946667197401</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.253545514012444</v>
+        <v>0.984731208537255</v>
       </c>
       <c r="C11">
-        <v>0.3561410343617979</v>
+        <v>0.1222691312120503</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4514339929407427</v>
+        <v>0.1515575046622288</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007952409493333803</v>
+        <v>0.002514176086948942</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.459282900005832</v>
+        <v>1.016264913628589</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.192397432386215</v>
+        <v>0.4482532701799755</v>
       </c>
       <c r="N11">
-        <v>2.247530485171012</v>
+        <v>2.982295497847019</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.315753830405527</v>
+        <v>0.9995126673156847</v>
       </c>
       <c r="C12">
-        <v>0.3664384042626807</v>
+        <v>0.124725496168594</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4645524990446077</v>
+        <v>0.1546661725966914</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007931030348449038</v>
+        <v>0.002513086481669856</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.527946327197299</v>
+        <v>1.032607409502759</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.226320723660805</v>
+        <v>0.4563136499018725</v>
       </c>
       <c r="N12">
-        <v>2.259110712763004</v>
+        <v>2.985178590567273</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.302319826852624</v>
+        <v>0.9963258556139749</v>
       </c>
       <c r="C13">
-        <v>0.3642138596626978</v>
+        <v>0.1241960937165629</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4617183595490459</v>
+        <v>0.1539961696481811</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007935631958514662</v>
+        <v>0.002513320253387299</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.513117225693634</v>
+        <v>1.02908432021664</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.218993305089271</v>
+        <v>0.4545761950913771</v>
       </c>
       <c r="N13">
-        <v>2.256586807616316</v>
+        <v>2.984553194857227</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.258647236286151</v>
+        <v>0.9859457748602267</v>
       </c>
       <c r="C14">
-        <v>0.3569851667395199</v>
+        <v>0.1224710467341765</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4525093254375889</v>
+        <v>0.1518130337040091</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007950649330782378</v>
+        <v>0.002514086041171617</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.464913518632926</v>
+        <v>1.017607871494846</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.195178773709188</v>
+        <v>0.448915723837743</v>
       </c>
       <c r="N14">
-        <v>2.248469839584487</v>
+        <v>2.982530678344403</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.232000819862662</v>
+        <v>0.9795975034866728</v>
       </c>
       <c r="C15">
-        <v>0.3525769434365031</v>
+        <v>0.1214155160285202</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4468938567136789</v>
+        <v>0.150477246337978</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007959856466054656</v>
+        <v>0.002514557728831609</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.435505620445468</v>
+        <v>1.010588275059973</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.1806531670655</v>
+        <v>0.4454529272241956</v>
       </c>
       <c r="N15">
-        <v>2.243584172971822</v>
+        <v>2.981304905414675</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.080811584172864</v>
+        <v>0.9433682811854283</v>
       </c>
       <c r="C16">
-        <v>0.3275973668330039</v>
+        <v>0.1153835746754623</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4150792815639619</v>
+        <v>0.142844339442405</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008012769036961512</v>
+        <v>0.002517301029820875</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.268692034813427</v>
+        <v>0.9705153754142941</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.098301124400237</v>
+        <v>0.425676141941544</v>
       </c>
       <c r="N16">
-        <v>2.216851288008627</v>
+        <v>2.974480393316384</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.989318200781213</v>
+        <v>0.9212762952620892</v>
       </c>
       <c r="C17">
-        <v>0.3125067049546715</v>
+        <v>0.1116980827268037</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3958644405925824</v>
+        <v>0.1381811475400951</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0008045383015768691</v>
+        <v>0.00251901996005075</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.167778781797864</v>
+        <v>0.946068313344</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.048517425868518</v>
+        <v>0.4136031451054549</v>
       </c>
       <c r="N17">
-        <v>2.201521560397964</v>
+        <v>2.970471568159411</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.937120624318482</v>
+        <v>0.9086184150263819</v>
       </c>
       <c r="C18">
-        <v>0.3039058590036916</v>
+        <v>0.1095837041155505</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3849147464777758</v>
+        <v>0.1355060199169671</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008064205750158163</v>
+        <v>0.002520021910321861</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.110218630598013</v>
+        <v>0.9320568596206726</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.020132663765722</v>
+        <v>0.4066807335470273</v>
       </c>
       <c r="N18">
-        <v>2.193075352829453</v>
+        <v>2.968230906997135</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.919517611554966</v>
+        <v>0.9043410444172082</v>
       </c>
       <c r="C19">
-        <v>0.3010066870639037</v>
+        <v>0.1088687368826982</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3812241071843303</v>
+        <v>0.1346014639960842</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0008070590486244713</v>
+        <v>0.002520363435525906</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.090809000961201</v>
+        <v>0.9273213590583396</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.010563003359344</v>
+        <v>0.4043406265585645</v>
       </c>
       <c r="N19">
-        <v>2.190277328970126</v>
+        <v>2.967483418521709</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.999012878094902</v>
+        <v>0.9236229649669667</v>
       </c>
       <c r="C20">
-        <v>0.3141048150448569</v>
+        <v>0.1120898474532908</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3978991237805616</v>
+        <v>0.1386768239314904</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008041904739922664</v>
+        <v>0.002518835604962931</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.178470364470144</v>
+        <v>0.9486655796604282</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.053790700833837</v>
+        <v>0.4148860907755818</v>
       </c>
       <c r="N20">
-        <v>2.203114550546132</v>
+        <v>2.970891570804923</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.27145298061987</v>
+        <v>0.988992606936506</v>
       </c>
       <c r="C21">
-        <v>0.3591042893872896</v>
+        <v>0.1229775031084159</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4552089068309257</v>
+        <v>0.152453971688324</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007946236627741632</v>
+        <v>0.002513860564684844</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.479047219968294</v>
+        <v>1.020976684739139</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.202160733180875</v>
+        <v>0.4505774223479904</v>
       </c>
       <c r="N21">
-        <v>2.250835884582386</v>
+        <v>2.983122013982978</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.454081298083281</v>
+        <v>1.032154766323231</v>
       </c>
       <c r="C22">
-        <v>0.389370458639803</v>
+        <v>0.1301427515022908</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4937732362667191</v>
+        <v>0.1615226203178821</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007884115742918496</v>
+        <v>0.00251072647540893</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.680674876125778</v>
+        <v>1.06868571236231</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.30182247699787</v>
+        <v>0.474100463782122</v>
       </c>
       <c r="N22">
-        <v>2.28582199261723</v>
+        <v>2.991699986497025</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.356150512289446</v>
+        <v>1.00907789844149</v>
       </c>
       <c r="C23">
-        <v>0.3731304201389207</v>
+        <v>0.1263139284553745</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4730788126098702</v>
+        <v>0.1566765138439834</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>0.0007917242550116681</v>
+        <v>0.002512388493489061</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.572541833885367</v>
+        <v>1.043181097753063</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.248360033858873</v>
+        <v>0.461527588903806</v>
       </c>
       <c r="N23">
-        <v>2.266776005490783</v>
+        <v>2.987068025752279</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.994628666806534</v>
+        <v>0.9225619014031281</v>
       </c>
       <c r="C24">
-        <v>0.313382077563034</v>
+        <v>0.1119127167440013</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3969789429412316</v>
+        <v>0.1384527105828539</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>0.0008043477040868436</v>
+        <v>0.002518918908996474</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.173635288307111</v>
+        <v>0.947491220165773</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.051405921412574</v>
+        <v>0.4143060134129044</v>
       </c>
       <c r="N24">
-        <v>2.202393221626494</v>
+        <v>2.970701488086291</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.620654568562856</v>
+        <v>0.8311050130900242</v>
       </c>
       <c r="C25">
-        <v>0.2518840200197303</v>
+        <v>0.09658505520081917</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3187132435053073</v>
+        <v>0.119062429420083</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0008182163757979237</v>
+        <v>0.002526470710790922</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.76140751429773</v>
+        <v>0.8461764232258133</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8482928207712419</v>
+        <v>0.364195473542182</v>
       </c>
       <c r="N25">
-        <v>2.146916920611147</v>
+        <v>2.955533835831474</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7653289220038175</v>
+        <v>1.355505593960771</v>
       </c>
       <c r="C2">
-        <v>0.08546719841855577</v>
+        <v>0.2084429796636016</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1050008489324767</v>
+        <v>0.263469074292928</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002532472839602385</v>
+        <v>0.0008287223881615376</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7731657418972304</v>
+        <v>1.469352257763632</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3279794908352685</v>
+        <v>0.704618858762764</v>
       </c>
       <c r="N2">
-        <v>2.94647403027362</v>
+        <v>2.115858098869168</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7217081492896114</v>
+        <v>1.180667155878382</v>
       </c>
       <c r="C3">
-        <v>0.07803260139199608</v>
+        <v>0.1798553003782644</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09559867191626381</v>
+        <v>0.2271340286461907</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002536818694311251</v>
+        <v>0.0008360595734463881</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7246526489608129</v>
+        <v>1.276845830429636</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3038456647080139</v>
+        <v>0.6100033895216512</v>
       </c>
       <c r="N3">
-        <v>2.941634418362682</v>
+        <v>2.099968801981419</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6953911062140605</v>
+        <v>1.075271736003117</v>
       </c>
       <c r="C4">
-        <v>0.07351569335392583</v>
+        <v>0.1626378960514074</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08988646178255522</v>
+        <v>0.2052587678207374</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002539625112992166</v>
+        <v>0.0008406815337988503</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6953356325517177</v>
+        <v>1.160818788690932</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2892253933940054</v>
+        <v>0.553003340214147</v>
       </c>
       <c r="N4">
-        <v>2.939299642765391</v>
+        <v>2.092483090257474</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.684783405697317</v>
+        <v>1.032754999824874</v>
       </c>
       <c r="C5">
-        <v>0.07168691100244473</v>
+        <v>0.1556946109913326</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08757370612940463</v>
+        <v>0.1964388939979074</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002540803581965884</v>
+        <v>0.0008425957390356759</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6835062363315387</v>
+        <v>1.114015605212643</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2833168029099156</v>
+        <v>0.5300149800924885</v>
       </c>
       <c r="N5">
-        <v>2.938507715090125</v>
+        <v>2.089966248262357</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6830290383502984</v>
+        <v>1.025719624116022</v>
       </c>
       <c r="C6">
-        <v>0.07138395664364339</v>
+        <v>0.1545457732128739</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0871905741140182</v>
+        <v>0.194979656361113</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002541001373103776</v>
+        <v>0.0008429154836091219</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6815490517685703</v>
+        <v>1.10627101481515</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.282338648428194</v>
+        <v>0.5262112680304227</v>
       </c>
       <c r="N6">
-        <v>2.938385832569807</v>
+        <v>2.089579526040581</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6952475752218845</v>
+        <v>1.074696663023445</v>
       </c>
       <c r="C7">
-        <v>0.0734909818142313</v>
+        <v>0.1625439755459013</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0898552106949424</v>
+        <v>0.2051394561026072</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002539640865019125</v>
+        <v>0.0008407072233893893</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.695175622256869</v>
+        <v>1.160185731464168</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2891455091614219</v>
+        <v>0.5526923858230433</v>
       </c>
       <c r="N7">
-        <v>2.939288317522312</v>
+        <v>2.092447033619322</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7501913565392044</v>
+        <v>1.294778202233118</v>
       </c>
       <c r="C8">
-        <v>0.0828936911277367</v>
+        <v>0.1985091166206558</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1017462046275952</v>
+        <v>0.250841234404291</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002533942709915812</v>
+        <v>0.0008312288156584492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7563403841468528</v>
+        <v>1.402482673063332</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3196167441257458</v>
+        <v>0.6717460113610798</v>
       </c>
       <c r="N8">
-        <v>2.944672800224438</v>
+        <v>2.109884866435451</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8616670036179528</v>
+        <v>1.744824437373836</v>
       </c>
       <c r="C9">
-        <v>0.1017215054407643</v>
+        <v>0.2722711396413047</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1255596873525562</v>
+        <v>0.3446516386677061</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002523858591656776</v>
+        <v>0.000813503738402646</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8800548143286733</v>
+        <v>1.898235572940024</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3809676991209017</v>
+        <v>0.9156665743225361</v>
       </c>
       <c r="N9">
-        <v>2.960313632400698</v>
+        <v>2.163946617860844</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9458957639512278</v>
+        <v>2.091311939484115</v>
       </c>
       <c r="C10">
-        <v>0.115804853564299</v>
+        <v>0.3293304980410596</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1433773996949554</v>
+        <v>0.4172863081829092</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002517106682979143</v>
+        <v>0.0008009055699773596</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9733117291462463</v>
+        <v>2.280275150658355</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4270567024700682</v>
+        <v>1.104017104024997</v>
       </c>
       <c r="N10">
-        <v>2.974946667197401</v>
+        <v>2.21865236955702</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.984731208537255</v>
+        <v>2.253545514012444</v>
       </c>
       <c r="C11">
-        <v>0.1222691312120503</v>
+        <v>0.3561410343617979</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1515575046622288</v>
+        <v>0.4514339929408138</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002514176086948942</v>
+        <v>0.000795240949330332</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.016264913628589</v>
+        <v>2.459282900005689</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4482532701799755</v>
+        <v>1.192397432386201</v>
       </c>
       <c r="N11">
-        <v>2.982295497847019</v>
+        <v>2.247530485171012</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9995126673156847</v>
+        <v>2.315753830405527</v>
       </c>
       <c r="C12">
-        <v>0.124725496168594</v>
+        <v>0.3664384042629649</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1546661725966914</v>
+        <v>0.4645524990445153</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002513086481669856</v>
+        <v>0.0007931030347283365</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.032607409502759</v>
+        <v>2.527946327197299</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4563136499018725</v>
+        <v>1.22632072366082</v>
       </c>
       <c r="N12">
-        <v>2.985178590567273</v>
+        <v>2.259110712762947</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9963258556139749</v>
+        <v>2.302319826852738</v>
       </c>
       <c r="C13">
-        <v>0.1241960937165629</v>
+        <v>0.3642138596627262</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1539961696481811</v>
+        <v>0.4617183595490104</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002513320253387299</v>
+        <v>0.000793563195795044</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.02908432021664</v>
+        <v>2.513117225693748</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4545761950913771</v>
+        <v>1.218993305089271</v>
       </c>
       <c r="N13">
-        <v>2.984553194857227</v>
+        <v>2.256586807616287</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9859457748602267</v>
+        <v>2.258647236286265</v>
       </c>
       <c r="C14">
-        <v>0.1224710467341765</v>
+        <v>0.3569851667394914</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1518130337040091</v>
+        <v>0.4525093254376813</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002514086041171617</v>
+        <v>0.0007950649331362879</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.017607871494846</v>
+        <v>2.464913518632926</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.448915723837743</v>
+        <v>1.195178773709188</v>
       </c>
       <c r="N14">
-        <v>2.982530678344403</v>
+        <v>2.24846983958443</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9795975034866728</v>
+        <v>2.232000819862492</v>
       </c>
       <c r="C15">
-        <v>0.1214155160285202</v>
+        <v>0.3525769434362758</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.150477246337978</v>
+        <v>0.4468938567137357</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002514557728831609</v>
+        <v>0.0007959856465486259</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.010588275059973</v>
+        <v>2.435505620445497</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4454529272241956</v>
+        <v>1.180653167065486</v>
       </c>
       <c r="N15">
-        <v>2.981304905414675</v>
+        <v>2.24358417297185</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9433682811854283</v>
+        <v>2.080811584172864</v>
       </c>
       <c r="C16">
-        <v>0.1153835746754623</v>
+        <v>0.3275973668330039</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.142844339442405</v>
+        <v>0.4150792815639761</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002517301029820875</v>
+        <v>0.0008012769037521052</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9705153754142941</v>
+        <v>2.268692034813398</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.425676141941544</v>
+        <v>1.098301124400244</v>
       </c>
       <c r="N16">
-        <v>2.974480393316384</v>
+        <v>2.216851288008655</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9212762952620892</v>
+        <v>1.989318200780986</v>
       </c>
       <c r="C17">
-        <v>0.1116980827268037</v>
+        <v>0.3125067049544725</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1381811475400951</v>
+        <v>0.3958644405925966</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.00251901996005075</v>
+        <v>0.0008045383016309726</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.946068313344</v>
+        <v>2.167778781797779</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4136031451054549</v>
+        <v>1.048517425868532</v>
       </c>
       <c r="N17">
-        <v>2.970471568159411</v>
+        <v>2.201521560397936</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9086184150263819</v>
+        <v>1.937120624318396</v>
       </c>
       <c r="C18">
-        <v>0.1095837041155505</v>
+        <v>0.3039058590036916</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1355060199169671</v>
+        <v>0.3849147464777758</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002520021910321861</v>
+        <v>0.0008064205750158163</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9320568596206726</v>
+        <v>2.110218630598013</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4066807335470273</v>
+        <v>1.020132663765715</v>
       </c>
       <c r="N18">
-        <v>2.968230906997135</v>
+        <v>2.193075352829453</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9043410444172082</v>
+        <v>1.919517611555108</v>
       </c>
       <c r="C19">
-        <v>0.1088687368826982</v>
+        <v>0.3010066870639321</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1346014639960842</v>
+        <v>0.3812241071843161</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002520363435525906</v>
+        <v>0.0008070590485692622</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9273213590583396</v>
+        <v>2.090809000961173</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4043406265585645</v>
+        <v>1.010563003359358</v>
       </c>
       <c r="N19">
-        <v>2.967483418521709</v>
+        <v>2.190277328970126</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9236229649669667</v>
+        <v>1.999012878094675</v>
       </c>
       <c r="C20">
-        <v>0.1120898474532908</v>
+        <v>0.3141048150446579</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1386768239314904</v>
+        <v>0.3978991237805189</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002518835604962931</v>
+        <v>0.0008041904738818109</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9486655796604282</v>
+        <v>2.178470364470172</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4148860907755818</v>
+        <v>1.053790700833801</v>
       </c>
       <c r="N20">
-        <v>2.970891570804923</v>
+        <v>2.203114550546161</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.988992606936506</v>
+        <v>2.27145298061987</v>
       </c>
       <c r="C21">
-        <v>0.1229775031084159</v>
+        <v>0.3591042893875169</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.152453971688324</v>
+        <v>0.4552089068309115</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002513860564684844</v>
+        <v>0.0007946236628931896</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.020976684739139</v>
+        <v>2.479047219968209</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4505774223479904</v>
+        <v>1.202160733180875</v>
       </c>
       <c r="N21">
-        <v>2.983122013982978</v>
+        <v>2.250835884582358</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.032154766323231</v>
+        <v>2.454081298083452</v>
       </c>
       <c r="C22">
-        <v>0.1301427515022908</v>
+        <v>0.3893704586395472</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1615226203178821</v>
+        <v>0.4937732362667546</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.00251072647540893</v>
+        <v>0.0007884115742322147</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.06868571236231</v>
+        <v>2.680674876125693</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.474100463782122</v>
+        <v>1.301822476997884</v>
       </c>
       <c r="N22">
-        <v>2.991699986497025</v>
+        <v>2.285821992617286</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.00907789844149</v>
+        <v>2.356150512289503</v>
       </c>
       <c r="C23">
-        <v>0.1263139284553745</v>
+        <v>0.3731304201391481</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1566765138439834</v>
+        <v>0.4730788126098417</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002512388493489061</v>
+        <v>0.0007917242550648508</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.043181097753063</v>
+        <v>2.572541833885396</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.461527588903806</v>
+        <v>1.248360033858887</v>
       </c>
       <c r="N23">
-        <v>2.987068025752279</v>
+        <v>2.266776005490811</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9225619014031281</v>
+        <v>1.994628666806761</v>
       </c>
       <c r="C24">
-        <v>0.1119127167440013</v>
+        <v>0.313382077563034</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1384527105828539</v>
+        <v>0.3969789429412245</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002518918908996474</v>
+        <v>0.0008043477040288779</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.947491220165773</v>
+        <v>2.173635288307167</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4143060134129044</v>
+        <v>1.051405921412581</v>
       </c>
       <c r="N24">
-        <v>2.970701488086291</v>
+        <v>2.202393221626465</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8311050130900242</v>
+        <v>1.62065456856277</v>
       </c>
       <c r="C25">
-        <v>0.09658505520081917</v>
+        <v>0.2518840200197872</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.119062429420083</v>
+        <v>0.3187132435053428</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002526470710790922</v>
+        <v>0.0008182163757431971</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8461764232258133</v>
+        <v>1.761407514297645</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.364195473542182</v>
+        <v>0.8482928207712561</v>
       </c>
       <c r="N25">
-        <v>2.955533835831474</v>
+        <v>2.146916920611034</v>
       </c>
       <c r="O25">
         <v>0</v>
